--- a/public/res/leaderboards/Final/Intermediate.xlsx
+++ b/public/res/leaderboards/Final/Intermediate.xlsx
@@ -486,29 +486,29 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Granth Saxena</t>
+          <t>Anton Lu</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>-30000</v>
+        <v>3900</v>
       </c>
       <c r="D2" t="n">
-        <v>105800</v>
+        <v>-30000</v>
       </c>
       <c r="E2" t="n">
         <v>-30000</v>
       </c>
       <c r="F2" t="n">
-        <v>-30000</v>
+        <v>108800</v>
       </c>
       <c r="G2" t="n">
-        <v>54000</v>
+        <v>-30000</v>
       </c>
       <c r="H2" t="n">
-        <v>-30000</v>
+        <v>147000</v>
       </c>
       <c r="I2" t="n">
-        <v>99800</v>
+        <v>229700</v>
       </c>
     </row>
     <row r="3">
@@ -536,10 +536,10 @@
         <v>18000</v>
       </c>
       <c r="H3" t="n">
-        <v>-30000</v>
+        <v>3000</v>
       </c>
       <c r="I3" t="n">
-        <v>76300</v>
+        <v>109300</v>
       </c>
     </row>
     <row r="4">
@@ -548,29 +548,29 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Nhat Minh Chu</t>
+          <t>Granth Saxena</t>
         </is>
       </c>
       <c r="C4" t="n">
         <v>-30000</v>
       </c>
       <c r="D4" t="n">
-        <v>-30000</v>
+        <v>105800</v>
       </c>
       <c r="E4" t="n">
-        <v>2000</v>
+        <v>-30000</v>
       </c>
       <c r="F4" t="n">
-        <v>62000</v>
+        <v>-30000</v>
       </c>
       <c r="G4" t="n">
-        <v>20000</v>
+        <v>54000</v>
       </c>
       <c r="H4" t="n">
         <v>-30000</v>
       </c>
       <c r="I4" t="n">
-        <v>54000</v>
+        <v>99800</v>
       </c>
     </row>
     <row r="5">
@@ -579,29 +579,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Anton Lu</t>
+          <t>Nhat Minh Chu</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3900</v>
+        <v>-30000</v>
       </c>
       <c r="D5" t="n">
         <v>-30000</v>
       </c>
       <c r="E5" t="n">
-        <v>-30000</v>
+        <v>2000</v>
       </c>
       <c r="F5" t="n">
-        <v>108800</v>
+        <v>62000</v>
       </c>
       <c r="G5" t="n">
-        <v>-30000</v>
+        <v>20000</v>
       </c>
       <c r="H5" t="n">
         <v>-30000</v>
       </c>
       <c r="I5" t="n">
-        <v>52700</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="6">

--- a/public/res/leaderboards/Final/Intermediate.xlsx
+++ b/public/res/leaderboards/Final/Intermediate.xlsx
@@ -579,29 +579,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Nhat Minh Chu</t>
+          <t>Vincent Lu</t>
         </is>
       </c>
       <c r="C5" t="n">
         <v>-30000</v>
       </c>
       <c r="D5" t="n">
-        <v>-30000</v>
+        <v>14200</v>
       </c>
       <c r="E5" t="n">
-        <v>2000</v>
+        <v>51100</v>
       </c>
       <c r="F5" t="n">
-        <v>62000</v>
+        <v>-30000</v>
       </c>
       <c r="G5" t="n">
-        <v>20000</v>
+        <v>-30000</v>
       </c>
       <c r="H5" t="n">
-        <v>-30000</v>
+        <v>24700</v>
       </c>
       <c r="I5" t="n">
-        <v>54000</v>
+        <v>60000</v>
       </c>
     </row>
     <row r="6">
@@ -610,29 +610,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Phuc Huy Doan</t>
+          <t>Nhat Minh Chu</t>
         </is>
       </c>
       <c r="C6" t="n">
         <v>-30000</v>
       </c>
       <c r="D6" t="n">
-        <v>33200</v>
+        <v>-30000</v>
       </c>
       <c r="E6" t="n">
-        <v>-30000</v>
+        <v>2000</v>
       </c>
       <c r="F6" t="n">
-        <v>-30000</v>
+        <v>62000</v>
       </c>
       <c r="G6" t="n">
-        <v>38600</v>
+        <v>20000</v>
       </c>
       <c r="H6" t="n">
         <v>-30000</v>
       </c>
       <c r="I6" t="n">
-        <v>11800</v>
+        <v>54000</v>
       </c>
     </row>
     <row r="7">
@@ -641,29 +641,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Vincent Lu</t>
+          <t>Nick Davaritorshiz</t>
         </is>
       </c>
       <c r="C7" t="n">
         <v>-30000</v>
       </c>
       <c r="D7" t="n">
-        <v>14200</v>
+        <v>-30000</v>
       </c>
       <c r="E7" t="n">
-        <v>51100</v>
+        <v>-1500</v>
       </c>
       <c r="F7" t="n">
-        <v>-30000</v>
+        <v>1500</v>
       </c>
       <c r="G7" t="n">
         <v>-30000</v>
       </c>
       <c r="H7" t="n">
-        <v>-30000</v>
+        <v>54300</v>
       </c>
       <c r="I7" t="n">
-        <v>5300</v>
+        <v>24300</v>
       </c>
     </row>
     <row r="8">
@@ -672,29 +672,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Dennis Guo</t>
+          <t>Phuc Huy Doan</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>11600</v>
+        <v>-30000</v>
       </c>
       <c r="D8" t="n">
-        <v>42800</v>
+        <v>33200</v>
       </c>
       <c r="E8" t="n">
-        <v>-22100</v>
+        <v>-30000</v>
       </c>
       <c r="F8" t="n">
         <v>-30000</v>
       </c>
       <c r="G8" t="n">
-        <v>-30000</v>
+        <v>38600</v>
       </c>
       <c r="H8" t="n">
         <v>-30000</v>
       </c>
       <c r="I8" t="n">
-        <v>2300</v>
+        <v>11800</v>
       </c>
     </row>
     <row r="9">
@@ -703,17 +703,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Nicholas Leon</t>
+          <t>Dennis Guo</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>80000</v>
+        <v>11600</v>
       </c>
       <c r="D9" t="n">
-        <v>-30000</v>
+        <v>42800</v>
       </c>
       <c r="E9" t="n">
-        <v>-30000</v>
+        <v>-22100</v>
       </c>
       <c r="F9" t="n">
         <v>-30000</v>
@@ -725,7 +725,7 @@
         <v>-30000</v>
       </c>
       <c r="I9" t="n">
-        <v>-10000</v>
+        <v>2300</v>
       </c>
     </row>
     <row r="10">
@@ -734,17 +734,17 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t xml:space="preserve">Julian Petrocchi </t>
+          <t>Nicholas Leon</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>60800</v>
+        <v>80000</v>
       </c>
       <c r="D10" t="n">
         <v>-30000</v>
       </c>
       <c r="E10" t="n">
-        <v>-22200</v>
+        <v>-30000</v>
       </c>
       <c r="F10" t="n">
         <v>-30000</v>
@@ -756,7 +756,7 @@
         <v>-30000</v>
       </c>
       <c r="I10" t="n">
-        <v>-21400</v>
+        <v>-10000</v>
       </c>
     </row>
     <row r="11">
@@ -765,17 +765,17 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Mark Li</t>
+          <t xml:space="preserve">Julian Petrocchi </t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>-30000</v>
+        <v>60800</v>
       </c>
       <c r="D11" t="n">
         <v>-30000</v>
       </c>
       <c r="E11" t="n">
-        <v>55700</v>
+        <v>-22200</v>
       </c>
       <c r="F11" t="n">
         <v>-30000</v>
@@ -787,7 +787,7 @@
         <v>-30000</v>
       </c>
       <c r="I11" t="n">
-        <v>-34300</v>
+        <v>-21400</v>
       </c>
     </row>
     <row r="12">
@@ -796,17 +796,17 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Christian Sallabank</t>
+          <t>Mark Li</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>50800</v>
+        <v>-30000</v>
       </c>
       <c r="D12" t="n">
         <v>-30000</v>
       </c>
       <c r="E12" t="n">
-        <v>-30000</v>
+        <v>55700</v>
       </c>
       <c r="F12" t="n">
         <v>-30000</v>
@@ -818,7 +818,7 @@
         <v>-30000</v>
       </c>
       <c r="I12" t="n">
-        <v>-39200</v>
+        <v>-34300</v>
       </c>
     </row>
     <row r="13">
@@ -827,11 +827,11 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Levin Kunniardy</t>
+          <t>Christian Sallabank</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>41000</v>
+        <v>50800</v>
       </c>
       <c r="D13" t="n">
         <v>-30000</v>
@@ -849,7 +849,7 @@
         <v>-30000</v>
       </c>
       <c r="I13" t="n">
-        <v>-49000</v>
+        <v>-39200</v>
       </c>
     </row>
     <row r="14">
@@ -858,11 +858,11 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Alex Do</t>
+          <t>Levin Kunniardy</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>23600</v>
+        <v>41000</v>
       </c>
       <c r="D14" t="n">
         <v>-30000</v>
@@ -880,7 +880,7 @@
         <v>-30000</v>
       </c>
       <c r="I14" t="n">
-        <v>-66400</v>
+        <v>-49000</v>
       </c>
     </row>
     <row r="15">
@@ -889,17 +889,17 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Nick Davaritorshiz</t>
+          <t>Alex Do</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-30000</v>
+        <v>23600</v>
       </c>
       <c r="D15" t="n">
         <v>-30000</v>
       </c>
       <c r="E15" t="n">
-        <v>-1500</v>
+        <v>-30000</v>
       </c>
       <c r="F15" t="n">
         <v>-30000</v>
@@ -911,7 +911,7 @@
         <v>-30000</v>
       </c>
       <c r="I15" t="n">
-        <v>-91500</v>
+        <v>-66400</v>
       </c>
     </row>
     <row r="16">
@@ -951,7 +951,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Jack Olivier</t>
+          <t>Ian Carroll</t>
         </is>
       </c>
       <c r="C17" t="n">
@@ -1168,7 +1168,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Brendan Zou</t>
+          <t>Alex Leviny</t>
         </is>
       </c>
       <c r="C24" t="n">
@@ -1199,7 +1199,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Jonah Wentzel</t>
+          <t>Brendan Zou</t>
         </is>
       </c>
       <c r="C25" t="n">
@@ -1230,7 +1230,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Logan Mcphail</t>
+          <t>Jonah Wentzel</t>
         </is>
       </c>
       <c r="C26" t="n">
@@ -1261,7 +1261,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Anirudh Kasturi</t>
+          <t>Logan Mcphail</t>
         </is>
       </c>
       <c r="C27" t="n">
@@ -1292,7 +1292,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Ian Carroll</t>
+          <t>Anirudh Kasturi</t>
         </is>
       </c>
       <c r="C28" t="n">
@@ -1323,7 +1323,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Joseph Doncev</t>
+          <t>Michael Shen</t>
         </is>
       </c>
       <c r="C29" t="n">
@@ -1354,7 +1354,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Alex Leviny</t>
+          <t>Joseph Doncev</t>
         </is>
       </c>
       <c r="C30" t="n">
@@ -1385,7 +1385,7 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Brady Surya Sie</t>
+          <t>Cameron Carmeni</t>
         </is>
       </c>
       <c r="C31" t="n">
@@ -1416,7 +1416,7 @@
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Nadim Kibria</t>
+          <t>Brady Surya Sie</t>
         </is>
       </c>
       <c r="C32" t="n">
@@ -1447,7 +1447,7 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Andrew Walton</t>
+          <t>Nadim Kibria</t>
         </is>
       </c>
       <c r="C33" t="n">
@@ -1478,7 +1478,7 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Cameron Carmeni</t>
+          <t>Andrew Walton</t>
         </is>
       </c>
       <c r="C34" t="n">
@@ -1509,7 +1509,7 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Cong Nguyen</t>
+          <t>Leo Grant</t>
         </is>
       </c>
       <c r="C35" t="n">
@@ -1540,7 +1540,7 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Leo Grant</t>
+          <t>Cong Nguyen</t>
         </is>
       </c>
       <c r="C36" t="n">
@@ -1571,7 +1571,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Wylie Khoe</t>
+          <t>Jack Olivier</t>
         </is>
       </c>
       <c r="C37" t="n">
@@ -1602,7 +1602,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Michael Shen</t>
+          <t>Wylie Khoe</t>
         </is>
       </c>
       <c r="C38" t="n">
